--- a/data/samplepcb_bom.xlsx
+++ b/data/samplepcb_bom.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\workspace\docker\tensorflow\bom\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\workspace\docker\tensorflow\samplepcb_bom\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39686E9E-CC97-4578-A8B3-54734DDD034E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FE0ECB2-7920-4451-B59D-DCD00130EB01}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9405" yWindow="2055" windowWidth="28800" windowHeight="15555" xr2:uid="{D119A6E7-D772-4D42-BA9E-3F5065AE232E}"/>
+    <workbookView xWindow="4455" yWindow="4830" windowWidth="28800" windowHeight="15555" activeTab="5" xr2:uid="{D119A6E7-D772-4D42-BA9E-3F5065AE232E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12832,7 +12832,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23AD202D-FE2C-416C-B8FB-D90539884FC0}">
   <dimension ref="A1:B1823"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A272" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B285" sqref="B285"/>
     </sheetView>
   </sheetViews>
@@ -27435,7 +27435,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07BC130C-F075-407A-87CB-5CB3B85B8921}">
   <dimension ref="A1:B1092"/>
   <sheetViews>
-    <sheetView topLeftCell="A121" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A138" sqref="A138"/>
     </sheetView>
   </sheetViews>
@@ -36190,8 +36190,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69101522-2903-447E-A219-9B6EA1BFAF23}">
   <dimension ref="A1:B756"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="A51" sqref="A51"/>
+    <sheetView topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="A106" sqref="A106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -43863,8 +43863,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC3133DF-3EEB-4511-B11E-DFB0F391B3D1}">
   <dimension ref="A1:B434"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
